--- a/midi_notes.xlsx
+++ b/midi_notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haubie/Development/midiex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419802BC-B442-2444-91BE-0E547C1FE5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DF9E6D-09F1-5341-8B57-BA99A487CB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{619EF234-4266-374A-AC48-C1138C7F611D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="355">
   <si>
     <t>MIDI note number</t>
   </si>
@@ -961,6 +961,147 @@
   </si>
   <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>Gs9</t>
+  </si>
+  <si>
+    <t>Fs9</t>
+  </si>
+  <si>
+    <t>Ds9</t>
+  </si>
+  <si>
+    <t>Cs9</t>
+  </si>
+  <si>
+    <t>As8</t>
+  </si>
+  <si>
+    <t>Gs8</t>
+  </si>
+  <si>
+    <t>Fs8</t>
+  </si>
+  <si>
+    <t>Ds8</t>
+  </si>
+  <si>
+    <t>Cs8</t>
+  </si>
+  <si>
+    <t>As7</t>
+  </si>
+  <si>
+    <t>Gs7</t>
+  </si>
+  <si>
+    <t>Fs7</t>
+  </si>
+  <si>
+    <t>Ds7</t>
+  </si>
+  <si>
+    <t>Cs7</t>
+  </si>
+  <si>
+    <t>As6</t>
+  </si>
+  <si>
+    <t>Gs6</t>
+  </si>
+  <si>
+    <t>Fs6</t>
+  </si>
+  <si>
+    <t>Ds6</t>
+  </si>
+  <si>
+    <t>Cs6</t>
+  </si>
+  <si>
+    <t>As5</t>
+  </si>
+  <si>
+    <t>Gs5</t>
+  </si>
+  <si>
+    <t>Fs5</t>
+  </si>
+  <si>
+    <t>Ds5</t>
+  </si>
+  <si>
+    <t>Cs5</t>
+  </si>
+  <si>
+    <t>As4</t>
+  </si>
+  <si>
+    <t>Gs4</t>
+  </si>
+  <si>
+    <t>Fs4</t>
+  </si>
+  <si>
+    <t>Ds4</t>
+  </si>
+  <si>
+    <t>Cs4</t>
+  </si>
+  <si>
+    <t>As3</t>
+  </si>
+  <si>
+    <t>Gs3</t>
+  </si>
+  <si>
+    <t>Fs3</t>
+  </si>
+  <si>
+    <t>Ds3</t>
+  </si>
+  <si>
+    <t>Cs3</t>
+  </si>
+  <si>
+    <t>As2</t>
+  </si>
+  <si>
+    <t>Gs2</t>
+  </si>
+  <si>
+    <t>Fs2</t>
+  </si>
+  <si>
+    <t>Ds2</t>
+  </si>
+  <si>
+    <t>Cs2</t>
+  </si>
+  <si>
+    <t>As1</t>
+  </si>
+  <si>
+    <t>Gs1</t>
+  </si>
+  <si>
+    <t>Fs1</t>
+  </si>
+  <si>
+    <t>Ds1</t>
+  </si>
+  <si>
+    <t>Cs1</t>
+  </si>
+  <si>
+    <t>As0</t>
+  </si>
+  <si>
+    <t>Map syntax</t>
+  </si>
+  <si>
+    <t>Atom</t>
   </si>
 </sst>
 </file>
@@ -3676,1949 +3817,3050 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA667C-078D-914F-B3B0-EA35617EFC07}">
-  <dimension ref="B1:D176"/>
+  <dimension ref="B1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="2" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="5">
         <v>128</v>
       </c>
-      <c r="D2" t="str">
-        <f>B2&amp;" =&gt; "&amp;C2&amp;","</f>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E66" si="0">B2&amp;" =&gt; "&amp;D2&amp;","</f>
         <v>Ab9 =&gt; 128,</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>C2&amp;": "&amp;D2&amp;","</f>
+        <v>Ab9: 128,</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="5">
         <v>128</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">B3&amp;" =&gt; "&amp;C3&amp;","</f>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
         <v>G#9 =&gt; 128,</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="1">C3&amp;": "&amp;D3&amp;","</f>
+        <v>Gs9: 128,</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
         <v>127</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>G9 =&gt; 127,</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>G9: 127,</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="5">
         <v>126</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>Gb9 =&gt; 126,</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>Gb9: 126,</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="5">
         <v>126</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>F#9 =&gt; 126,</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>Fs9: 126,</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
         <v>125</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>F9 =&gt; 125,</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>F9: 125,</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
         <v>124</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>E9 =&gt; 124,</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>E9: 124,</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="5">
         <v>123</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>Eb9 =&gt; 123,</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>Eb9: 123,</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="5">
         <v>123</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>D#9 =&gt; 123,</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>Ds9: 123,</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5">
         <v>122</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>D9 =&gt; 122,</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>D9: 122,</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="5">
         <v>121</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>Db9 =&gt; 121,</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>Db9: 121,</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="5">
         <v>121</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>C#9 =&gt; 121,</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>Cs9: 121,</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5">
         <v>120</v>
       </c>
-      <c r="D14" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>C9 =&gt; 120,</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>C9: 120,</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5">
         <v>119</v>
       </c>
-      <c r="D15" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>B8 =&gt; 119,</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>B8: 119,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="5">
         <v>118</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>Bb8 =&gt; 118,</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>Bb8: 118,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="5">
         <v>118</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>A#8 =&gt; 118,</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>As8: 118,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5">
         <v>117</v>
       </c>
-      <c r="D18" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>A8 =&gt; 117,</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>A8: 117,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="5">
         <v>116</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>Ab8 =&gt; 116,</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>Ab8: 116,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="5">
         <v>116</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>G#8 =&gt; 116,</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>Gs8: 116,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5">
         <v>115</v>
       </c>
-      <c r="D21" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>G8 =&gt; 115,</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>G8: 115,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="5">
         <v>114</v>
       </c>
-      <c r="D22" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>Gb8 =&gt; 114,</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>Gb8: 114,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="5">
         <v>114</v>
       </c>
-      <c r="D23" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>F#8 =&gt; 114,</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>Fs8: 114,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="5">
         <v>113</v>
       </c>
-      <c r="D24" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>F8 =&gt; 113,</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>F8: 113,</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5">
         <v>112</v>
       </c>
-      <c r="D25" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>E8 =&gt; 112,</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>E8: 112,</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="5">
         <v>111</v>
       </c>
-      <c r="D26" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>Eb8 =&gt; 111,</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>Eb8: 111,</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" s="5">
         <v>111</v>
       </c>
-      <c r="D27" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>D#8 =&gt; 111,</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>Ds8: 111,</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="5">
         <v>110</v>
       </c>
-      <c r="D28" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>D8 =&gt; 110,</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>D8: 110,</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="5">
         <v>109</v>
       </c>
-      <c r="D29" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>Db8 =&gt; 109,</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>Db8: 109,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" s="5">
         <v>109</v>
       </c>
-      <c r="D30" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>C#8 =&gt; 109,</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>Cs8: 109,</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="5">
         <v>108</v>
       </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>C8 =&gt; 108,</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>C8: 108,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="5">
         <v>107</v>
       </c>
-      <c r="D32" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>B7 =&gt; 107,</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>B7: 107,</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" s="5">
         <v>106</v>
       </c>
-      <c r="D33" t="str">
+      <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>Bb7 =&gt; 106,</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>Bb7: 106,</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D34" s="5">
         <v>106</v>
       </c>
-      <c r="D34" t="str">
+      <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>A#7 =&gt; 106,</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>As7: 106,</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="5">
         <v>105</v>
       </c>
-      <c r="D35" t="str">
+      <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>A7 =&gt; 105,</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>A7: 105,</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="5">
         <v>104</v>
       </c>
-      <c r="D36" t="str">
+      <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>Ab7 =&gt; 104,</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>Ab7: 104,</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" s="5">
         <v>104</v>
       </c>
-      <c r="D37" t="str">
+      <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>G#7 =&gt; 104,</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>Gs7: 104,</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="5">
         <v>103</v>
       </c>
-      <c r="D38" t="str">
+      <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>G7 =&gt; 103,</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>G7: 103,</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="5">
         <v>102</v>
       </c>
-      <c r="D39" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>Gb7 =&gt; 102,</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>Gb7: 102,</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="5">
         <v>102</v>
       </c>
-      <c r="D40" t="str">
+      <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>F#7 =&gt; 102,</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>Fs7: 102,</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="5">
         <v>101</v>
       </c>
-      <c r="D41" t="str">
+      <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>F7 =&gt; 101,</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>F7: 101,</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="5">
         <v>100</v>
       </c>
-      <c r="D42" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>E7 =&gt; 100,</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>E7: 100,</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="5">
         <v>99</v>
       </c>
-      <c r="D43" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="0"/>
         <v>Eb7 =&gt; 99,</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>Eb7: 99,</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="5">
         <v>99</v>
       </c>
-      <c r="D44" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v>D#7 =&gt; 99,</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>Ds7: 99,</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="5">
         <v>98</v>
       </c>
-      <c r="D45" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="0"/>
         <v>D7 =&gt; 98,</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>D7: 98,</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D46" s="5">
         <v>97</v>
       </c>
-      <c r="D46" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v>Db7 =&gt; 97,</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>Db7: 97,</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D47" s="5">
         <v>97</v>
       </c>
-      <c r="D47" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="0"/>
         <v>C#7 =&gt; 97,</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>Cs7: 97,</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="5">
         <v>96</v>
       </c>
-      <c r="D48" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="0"/>
         <v>C7 =&gt; 96,</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>C7: 96,</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="5">
         <v>95</v>
       </c>
-      <c r="D49" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="0"/>
         <v>B6 =&gt; 95,</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>B6: 95,</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="5">
         <v>94</v>
       </c>
-      <c r="D50" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="0"/>
         <v>Bb6 =&gt; 94,</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>Bb6: 94,</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D51" s="5">
         <v>94</v>
       </c>
-      <c r="D51" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="0"/>
         <v>A#6 =&gt; 94,</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>As6: 94,</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="5">
         <v>93</v>
       </c>
-      <c r="D52" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="0"/>
         <v>A6 =&gt; 93,</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>A6: 93,</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" s="5">
         <v>92</v>
       </c>
-      <c r="D53" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="0"/>
         <v>Ab6 =&gt; 92,</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>Ab6: 92,</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D54" s="5">
         <v>92</v>
       </c>
-      <c r="D54" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="0"/>
         <v>G#6 =&gt; 92,</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>Gs6: 92,</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="5">
         <v>91</v>
       </c>
-      <c r="D55" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="0"/>
         <v>G6 =&gt; 91,</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>G6: 91,</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="5">
         <v>90</v>
       </c>
-      <c r="D56" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="0"/>
         <v>Gb6 =&gt; 90,</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>Gb6: 90,</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D57" s="5">
         <v>90</v>
       </c>
-      <c r="D57" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="0"/>
         <v>F#6 =&gt; 90,</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>Fs6: 90,</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="5">
         <v>89</v>
       </c>
-      <c r="D58" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="0"/>
         <v>F6 =&gt; 89,</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>F6: 89,</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="5">
         <v>88</v>
       </c>
-      <c r="D59" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="0"/>
         <v>E6 =&gt; 88,</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>E6: 88,</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="5">
         <v>87</v>
       </c>
-      <c r="D60" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="0"/>
         <v>Eb6 =&gt; 87,</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>Eb6: 87,</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D61" s="5">
         <v>87</v>
       </c>
-      <c r="D61" t="str">
+      <c r="E61" t="str">
         <f t="shared" si="0"/>
         <v>D#6 =&gt; 87,</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>Ds6: 87,</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="5">
         <v>86</v>
       </c>
-      <c r="D62" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="0"/>
         <v>D6 =&gt; 86,</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>D6: 86,</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" s="5">
         <v>85</v>
       </c>
-      <c r="D63" t="str">
+      <c r="E63" t="str">
         <f t="shared" si="0"/>
         <v>Db6 =&gt; 85,</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>Db6: 85,</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D64" s="5">
         <v>85</v>
       </c>
-      <c r="D64" t="str">
+      <c r="E64" t="str">
         <f t="shared" si="0"/>
         <v>C#6 =&gt; 85,</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>Cs6: 85,</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="5">
         <v>84</v>
       </c>
-      <c r="D65" t="str">
+      <c r="E65" t="str">
         <f t="shared" si="0"/>
         <v>C6 =&gt; 84,</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>C6: 84,</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="5">
         <v>83</v>
       </c>
-      <c r="D66" t="str">
+      <c r="E66" t="str">
         <f t="shared" si="0"/>
         <v>B5 =&gt; 83,</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>B5: 83,</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="5">
         <v>82</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="1">B67&amp;" =&gt; "&amp;C67&amp;","</f>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E130" si="2">B67&amp;" =&gt; "&amp;D67&amp;","</f>
         <v>Bb5 =&gt; 82,</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="3">C67&amp;": "&amp;D67&amp;","</f>
+        <v>Bb5: 82,</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68" s="5">
         <v>82</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
         <v>A#5 =&gt; 82,</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v>As5: 82,</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="5">
         <v>81</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
         <v>A5 =&gt; 81,</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>A5: 81,</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="5">
         <v>80</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
         <v>Ab5 =&gt; 80,</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>Ab5: 80,</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D71" s="5">
         <v>80</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
         <v>G#5 =&gt; 80,</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>Gs5: 80,</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="5">
         <v>79</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
         <v>G5 =&gt; 79,</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>G5: 79,</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" s="5">
         <v>78</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
         <v>Gb5 =&gt; 78,</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>Gb5: 78,</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D74" s="5">
         <v>78</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
         <v>F#5 =&gt; 78,</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>Fs5: 78,</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="5">
         <v>77</v>
       </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
         <v>F5 =&gt; 77,</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>F5: 77,</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="5">
         <v>76</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
         <v>E5 =&gt; 76,</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>E5: 76,</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" s="5">
         <v>75</v>
       </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
         <v>Eb5 =&gt; 75,</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>Eb5: 75,</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D78" s="5">
         <v>75</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
         <v>D#5 =&gt; 75,</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>Ds5: 75,</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="5">
         <v>74</v>
       </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
         <v>D5 =&gt; 74,</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v>D5: 74,</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D80" s="5">
         <v>73</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
         <v>Db5 =&gt; 73,</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v>Db5: 73,</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D81" s="5">
         <v>73</v>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
         <v>C#5 =&gt; 73,</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v>Cs5: 73,</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="5">
         <v>72</v>
       </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
         <v>C5 =&gt; 72,</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v>C5: 72,</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="5">
         <v>71</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
+      <c r="E83" t="str">
+        <f t="shared" si="2"/>
         <v>B4 =&gt; 71,</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v>B4: 71,</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D84" s="5">
         <v>70</v>
       </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
+      <c r="E84" t="str">
+        <f t="shared" si="2"/>
         <v>Bb4 =&gt; 70,</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F84" t="str">
+        <f t="shared" si="3"/>
+        <v>Bb4: 70,</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D85" s="5">
         <v>70</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
+      <c r="E85" t="str">
+        <f t="shared" si="2"/>
         <v>A#4 =&gt; 70,</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F85" t="str">
+        <f t="shared" si="3"/>
+        <v>As4: 70,</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" s="5">
         <v>69</v>
       </c>
-      <c r="D86" t="str">
-        <f t="shared" si="1"/>
+      <c r="E86" t="str">
+        <f t="shared" si="2"/>
         <v>A4 =&gt; 69,</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F86" t="str">
+        <f t="shared" si="3"/>
+        <v>A4: 69,</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" s="5">
         <v>68</v>
       </c>
-      <c r="D87" t="str">
-        <f t="shared" si="1"/>
+      <c r="E87" t="str">
+        <f t="shared" si="2"/>
         <v>Ab4 =&gt; 68,</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F87" t="str">
+        <f t="shared" si="3"/>
+        <v>Ab4: 68,</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D88" s="5">
         <v>68</v>
       </c>
-      <c r="D88" t="str">
-        <f t="shared" si="1"/>
+      <c r="E88" t="str">
+        <f t="shared" si="2"/>
         <v>G#4 =&gt; 68,</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F88" t="str">
+        <f t="shared" si="3"/>
+        <v>Gs4: 68,</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" s="5">
         <v>67</v>
       </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
+      <c r="E89" t="str">
+        <f t="shared" si="2"/>
         <v>G4 =&gt; 67,</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F89" t="str">
+        <f t="shared" si="3"/>
+        <v>G4: 67,</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="5">
         <v>66</v>
       </c>
-      <c r="D90" t="str">
-        <f t="shared" si="1"/>
+      <c r="E90" t="str">
+        <f t="shared" si="2"/>
         <v>Gb4 =&gt; 66,</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F90" t="str">
+        <f t="shared" si="3"/>
+        <v>Gb4: 66,</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D91" s="5">
         <v>66</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" si="1"/>
+      <c r="E91" t="str">
+        <f t="shared" si="2"/>
         <v>F#4 =&gt; 66,</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F91" t="str">
+        <f t="shared" si="3"/>
+        <v>Fs4: 66,</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="5">
         <v>65</v>
       </c>
-      <c r="D92" t="str">
-        <f t="shared" si="1"/>
+      <c r="E92" t="str">
+        <f t="shared" si="2"/>
         <v>F4 =&gt; 65,</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F92" t="str">
+        <f t="shared" si="3"/>
+        <v>F4: 65,</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="5">
         <v>64</v>
       </c>
-      <c r="D93" t="str">
-        <f t="shared" si="1"/>
+      <c r="E93" t="str">
+        <f t="shared" si="2"/>
         <v>E4 =&gt; 64,</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F93" t="str">
+        <f t="shared" si="3"/>
+        <v>E4: 64,</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D94" s="5">
         <v>63</v>
       </c>
-      <c r="D94" t="str">
-        <f t="shared" si="1"/>
+      <c r="E94" t="str">
+        <f t="shared" si="2"/>
         <v>Eb4 =&gt; 63,</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F94" t="str">
+        <f t="shared" si="3"/>
+        <v>Eb4: 63,</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D95" s="5">
         <v>63</v>
       </c>
-      <c r="D95" t="str">
-        <f t="shared" si="1"/>
+      <c r="E95" t="str">
+        <f t="shared" si="2"/>
         <v>D#4 =&gt; 63,</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F95" t="str">
+        <f t="shared" si="3"/>
+        <v>Ds4: 63,</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="5">
         <v>62</v>
       </c>
-      <c r="D96" t="str">
-        <f t="shared" si="1"/>
+      <c r="E96" t="str">
+        <f t="shared" si="2"/>
         <v>D4 =&gt; 62,</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F96" t="str">
+        <f t="shared" si="3"/>
+        <v>D4: 62,</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D97" s="5">
         <v>61</v>
       </c>
-      <c r="D97" t="str">
-        <f t="shared" si="1"/>
+      <c r="E97" t="str">
+        <f t="shared" si="2"/>
         <v>Db4 =&gt; 61,</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F97" t="str">
+        <f t="shared" si="3"/>
+        <v>Db4: 61,</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" s="5">
         <v>61</v>
       </c>
-      <c r="D98" t="str">
-        <f t="shared" si="1"/>
+      <c r="E98" t="str">
+        <f t="shared" si="2"/>
         <v>C#4 =&gt; 61,</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F98" t="str">
+        <f t="shared" si="3"/>
+        <v>Cs4: 61,</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D99" s="5">
         <v>60</v>
       </c>
-      <c r="D99" t="str">
-        <f t="shared" si="1"/>
+      <c r="E99" t="str">
+        <f t="shared" si="2"/>
         <v>C4 =&gt; 60,</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F99" t="str">
+        <f t="shared" si="3"/>
+        <v>C4: 60,</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="5">
         <v>59</v>
       </c>
-      <c r="D100" t="str">
-        <f t="shared" si="1"/>
+      <c r="E100" t="str">
+        <f t="shared" si="2"/>
         <v>B3 =&gt; 59,</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F100" t="str">
+        <f t="shared" si="3"/>
+        <v>B3: 59,</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D101" s="5">
         <v>58</v>
       </c>
-      <c r="D101" t="str">
-        <f t="shared" si="1"/>
+      <c r="E101" t="str">
+        <f t="shared" si="2"/>
         <v>Bb3 =&gt; 58,</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F101" t="str">
+        <f t="shared" si="3"/>
+        <v>Bb3: 58,</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D102" s="5">
         <v>58</v>
       </c>
-      <c r="D102" t="str">
-        <f t="shared" si="1"/>
+      <c r="E102" t="str">
+        <f t="shared" si="2"/>
         <v>A#3 =&gt; 58,</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F102" t="str">
+        <f t="shared" si="3"/>
+        <v>As3: 58,</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" s="5">
         <v>57</v>
       </c>
-      <c r="D103" t="str">
-        <f t="shared" si="1"/>
+      <c r="E103" t="str">
+        <f t="shared" si="2"/>
         <v>A3 =&gt; 57,</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F103" t="str">
+        <f t="shared" si="3"/>
+        <v>A3: 57,</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="5">
         <v>56</v>
       </c>
-      <c r="D104" t="str">
-        <f t="shared" si="1"/>
+      <c r="E104" t="str">
+        <f t="shared" si="2"/>
         <v>Ab3 =&gt; 56,</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F104" t="str">
+        <f t="shared" si="3"/>
+        <v>Ab3: 56,</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D105" s="5">
         <v>56</v>
       </c>
-      <c r="D105" t="str">
-        <f t="shared" si="1"/>
+      <c r="E105" t="str">
+        <f t="shared" si="2"/>
         <v>G#3 =&gt; 56,</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F105" t="str">
+        <f t="shared" si="3"/>
+        <v>Gs3: 56,</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="5">
         <v>55</v>
       </c>
-      <c r="D106" t="str">
-        <f t="shared" si="1"/>
+      <c r="E106" t="str">
+        <f t="shared" si="2"/>
         <v>G3 =&gt; 55,</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F106" t="str">
+        <f t="shared" si="3"/>
+        <v>G3: 55,</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D107" s="5">
         <v>54</v>
       </c>
-      <c r="D107" t="str">
-        <f t="shared" si="1"/>
+      <c r="E107" t="str">
+        <f t="shared" si="2"/>
         <v>Gb3 =&gt; 54,</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F107" t="str">
+        <f t="shared" si="3"/>
+        <v>Gb3: 54,</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D108" s="5">
         <v>54</v>
       </c>
-      <c r="D108" t="str">
-        <f t="shared" si="1"/>
+      <c r="E108" t="str">
+        <f t="shared" si="2"/>
         <v>F#3 =&gt; 54,</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F108" t="str">
+        <f t="shared" si="3"/>
+        <v>Fs3: 54,</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109" s="5">
         <v>53</v>
       </c>
-      <c r="D109" t="str">
-        <f t="shared" si="1"/>
+      <c r="E109" t="str">
+        <f t="shared" si="2"/>
         <v>F3 =&gt; 53,</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F109" t="str">
+        <f t="shared" si="3"/>
+        <v>F3: 53,</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" s="5">
         <v>52</v>
       </c>
-      <c r="D110" t="str">
-        <f t="shared" si="1"/>
+      <c r="E110" t="str">
+        <f t="shared" si="2"/>
         <v>E3 =&gt; 52,</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F110" t="str">
+        <f t="shared" si="3"/>
+        <v>E3: 52,</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D111" s="5">
         <v>51</v>
       </c>
-      <c r="D111" t="str">
-        <f t="shared" si="1"/>
+      <c r="E111" t="str">
+        <f t="shared" si="2"/>
         <v>Eb3 =&gt; 51,</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F111" t="str">
+        <f t="shared" si="3"/>
+        <v>Eb3: 51,</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D112" s="5">
         <v>51</v>
       </c>
-      <c r="D112" t="str">
-        <f t="shared" si="1"/>
+      <c r="E112" t="str">
+        <f t="shared" si="2"/>
         <v>D#3 =&gt; 51,</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F112" t="str">
+        <f t="shared" si="3"/>
+        <v>Ds3: 51,</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" s="5">
         <v>50</v>
       </c>
-      <c r="D113" t="str">
-        <f t="shared" si="1"/>
+      <c r="E113" t="str">
+        <f t="shared" si="2"/>
         <v>D3 =&gt; 50,</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F113" t="str">
+        <f t="shared" si="3"/>
+        <v>D3: 50,</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" s="5">
         <v>49</v>
       </c>
-      <c r="D114" t="str">
-        <f t="shared" si="1"/>
+      <c r="E114" t="str">
+        <f t="shared" si="2"/>
         <v>Db3 =&gt; 49,</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F114" t="str">
+        <f t="shared" si="3"/>
+        <v>Db3: 49,</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D115" s="5">
         <v>49</v>
       </c>
-      <c r="D115" t="str">
-        <f t="shared" si="1"/>
+      <c r="E115" t="str">
+        <f t="shared" si="2"/>
         <v>C#3 =&gt; 49,</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F115" t="str">
+        <f t="shared" si="3"/>
+        <v>Cs3: 49,</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D116" s="5">
         <v>48</v>
       </c>
-      <c r="D116" t="str">
-        <f t="shared" si="1"/>
+      <c r="E116" t="str">
+        <f t="shared" si="2"/>
         <v>C3 =&gt; 48,</v>
       </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F116" t="str">
+        <f t="shared" si="3"/>
+        <v>C3: 48,</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="5">
         <v>47</v>
       </c>
-      <c r="D117" t="str">
-        <f t="shared" si="1"/>
+      <c r="E117" t="str">
+        <f t="shared" si="2"/>
         <v>B2 =&gt; 47,</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F117" t="str">
+        <f t="shared" si="3"/>
+        <v>B2: 47,</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="5">
         <v>46</v>
       </c>
-      <c r="D118" t="str">
-        <f t="shared" si="1"/>
+      <c r="E118" t="str">
+        <f t="shared" si="2"/>
         <v>Bb2 =&gt; 46,</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F118" t="str">
+        <f t="shared" si="3"/>
+        <v>Bb2: 46,</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D119" s="5">
         <v>46</v>
       </c>
-      <c r="D119" t="str">
-        <f t="shared" si="1"/>
+      <c r="E119" t="str">
+        <f t="shared" si="2"/>
         <v>A#2 =&gt; 46,</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F119" t="str">
+        <f t="shared" si="3"/>
+        <v>As2: 46,</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D120" s="5">
         <v>45</v>
       </c>
-      <c r="D120" t="str">
-        <f t="shared" si="1"/>
+      <c r="E120" t="str">
+        <f t="shared" si="2"/>
         <v>A2 =&gt; 45,</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F120" t="str">
+        <f t="shared" si="3"/>
+        <v>A2: 45,</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D121" s="5">
         <v>44</v>
       </c>
-      <c r="D121" t="str">
-        <f t="shared" si="1"/>
+      <c r="E121" t="str">
+        <f t="shared" si="2"/>
         <v>Ab2 =&gt; 44,</v>
       </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F121" t="str">
+        <f t="shared" si="3"/>
+        <v>Ab2: 44,</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D122" s="5">
         <v>44</v>
       </c>
-      <c r="D122" t="str">
-        <f t="shared" si="1"/>
+      <c r="E122" t="str">
+        <f t="shared" si="2"/>
         <v>G#2 =&gt; 44,</v>
       </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F122" t="str">
+        <f t="shared" si="3"/>
+        <v>Gs2: 44,</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D123" s="5">
         <v>43</v>
       </c>
-      <c r="D123" t="str">
-        <f t="shared" si="1"/>
+      <c r="E123" t="str">
+        <f t="shared" si="2"/>
         <v>G2 =&gt; 43,</v>
       </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F123" t="str">
+        <f t="shared" si="3"/>
+        <v>G2: 43,</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D124" s="5">
         <v>42</v>
       </c>
-      <c r="D124" t="str">
-        <f t="shared" si="1"/>
+      <c r="E124" t="str">
+        <f t="shared" si="2"/>
         <v>Gb2 =&gt; 42,</v>
       </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F124" t="str">
+        <f t="shared" si="3"/>
+        <v>Gb2: 42,</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D125" s="5">
         <v>42</v>
       </c>
-      <c r="D125" t="str">
-        <f t="shared" si="1"/>
+      <c r="E125" t="str">
+        <f t="shared" si="2"/>
         <v>F#2 =&gt; 42,</v>
       </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F125" t="str">
+        <f t="shared" si="3"/>
+        <v>Fs2: 42,</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" s="5">
         <v>41</v>
       </c>
-      <c r="D126" t="str">
-        <f t="shared" si="1"/>
+      <c r="E126" t="str">
+        <f t="shared" si="2"/>
         <v>F2 =&gt; 41,</v>
       </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F126" t="str">
+        <f t="shared" si="3"/>
+        <v>F2: 41,</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D127" s="5">
         <v>40</v>
       </c>
-      <c r="D127" t="str">
-        <f t="shared" si="1"/>
+      <c r="E127" t="str">
+        <f t="shared" si="2"/>
         <v>E2 =&gt; 40,</v>
       </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F127" t="str">
+        <f t="shared" si="3"/>
+        <v>E2: 40,</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" s="5">
         <v>39</v>
       </c>
-      <c r="D128" t="str">
-        <f t="shared" si="1"/>
+      <c r="E128" t="str">
+        <f t="shared" si="2"/>
         <v>Eb2 =&gt; 39,</v>
       </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F128" t="str">
+        <f t="shared" si="3"/>
+        <v>Eb2: 39,</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D129" s="5">
         <v>39</v>
       </c>
-      <c r="D129" t="str">
-        <f t="shared" si="1"/>
+      <c r="E129" t="str">
+        <f t="shared" si="2"/>
         <v>D#2 =&gt; 39,</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F129" t="str">
+        <f t="shared" si="3"/>
+        <v>Ds2: 39,</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D130" s="5">
         <v>38</v>
       </c>
-      <c r="D130" t="str">
-        <f t="shared" si="1"/>
+      <c r="E130" t="str">
+        <f t="shared" si="2"/>
         <v>D2 =&gt; 38,</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F130" t="str">
+        <f t="shared" si="3"/>
+        <v>D2: 38,</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D131" s="5">
         <v>37</v>
       </c>
-      <c r="D131" t="str">
-        <f t="shared" ref="D131:D154" si="2">B131&amp;" =&gt; "&amp;C131&amp;","</f>
+      <c r="E131" t="str">
+        <f t="shared" ref="E131:E154" si="4">B131&amp;" =&gt; "&amp;D131&amp;","</f>
         <v>Db2 =&gt; 37,</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F154" si="5">C131&amp;": "&amp;D131&amp;","</f>
+        <v>Db2: 37,</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D132" s="5">
         <v>37</v>
       </c>
-      <c r="D132" t="str">
-        <f t="shared" si="2"/>
+      <c r="E132" t="str">
+        <f t="shared" si="4"/>
         <v>C#2 =&gt; 37,</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F132" t="str">
+        <f t="shared" si="5"/>
+        <v>Cs2: 37,</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D133" s="5">
         <v>36</v>
       </c>
-      <c r="D133" t="str">
-        <f t="shared" si="2"/>
+      <c r="E133" t="str">
+        <f t="shared" si="4"/>
         <v>C2 =&gt; 36,</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F133" t="str">
+        <f t="shared" si="5"/>
+        <v>C2: 36,</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D134" s="5">
         <v>35</v>
       </c>
-      <c r="D134" t="str">
-        <f t="shared" si="2"/>
+      <c r="E134" t="str">
+        <f t="shared" si="4"/>
         <v>B1 =&gt; 35,</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F134" t="str">
+        <f t="shared" si="5"/>
+        <v>B1: 35,</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D135" s="5">
         <v>34</v>
       </c>
-      <c r="D135" t="str">
-        <f t="shared" si="2"/>
+      <c r="E135" t="str">
+        <f t="shared" si="4"/>
         <v>Bb1 =&gt; 34,</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F135" t="str">
+        <f t="shared" si="5"/>
+        <v>Bb1: 34,</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D136" s="5">
         <v>34</v>
       </c>
-      <c r="D136" t="str">
-        <f t="shared" si="2"/>
+      <c r="E136" t="str">
+        <f t="shared" si="4"/>
         <v>A#1 =&gt; 34,</v>
       </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F136" t="str">
+        <f t="shared" si="5"/>
+        <v>As1: 34,</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D137" s="5">
         <v>33</v>
       </c>
-      <c r="D137" t="str">
-        <f t="shared" si="2"/>
+      <c r="E137" t="str">
+        <f t="shared" si="4"/>
         <v>A1 =&gt; 33,</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F137" t="str">
+        <f t="shared" si="5"/>
+        <v>A1: 33,</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D138" s="5">
         <v>32</v>
       </c>
-      <c r="D138" t="str">
-        <f t="shared" si="2"/>
+      <c r="E138" t="str">
+        <f t="shared" si="4"/>
         <v>Ab1 =&gt; 32,</v>
       </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F138" t="str">
+        <f t="shared" si="5"/>
+        <v>Ab1: 32,</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D139" s="5">
         <v>32</v>
       </c>
-      <c r="D139" t="str">
-        <f t="shared" si="2"/>
+      <c r="E139" t="str">
+        <f t="shared" si="4"/>
         <v>G#1 =&gt; 32,</v>
       </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F139" t="str">
+        <f t="shared" si="5"/>
+        <v>Gs1: 32,</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D140" s="5">
         <v>31</v>
       </c>
-      <c r="D140" t="str">
-        <f t="shared" si="2"/>
+      <c r="E140" t="str">
+        <f t="shared" si="4"/>
         <v>G1 =&gt; 31,</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F140" t="str">
+        <f t="shared" si="5"/>
+        <v>G1: 31,</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D141" s="5">
         <v>30</v>
       </c>
-      <c r="D141" t="str">
-        <f t="shared" si="2"/>
+      <c r="E141" t="str">
+        <f t="shared" si="4"/>
         <v>Gb1 =&gt; 30,</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F141" t="str">
+        <f t="shared" si="5"/>
+        <v>Gb1: 30,</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D142" s="5">
         <v>30</v>
       </c>
-      <c r="D142" t="str">
-        <f t="shared" si="2"/>
+      <c r="E142" t="str">
+        <f t="shared" si="4"/>
         <v>F#1 =&gt; 30,</v>
       </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F142" t="str">
+        <f t="shared" si="5"/>
+        <v>Fs1: 30,</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D143" s="5">
         <v>29</v>
       </c>
-      <c r="D143" t="str">
-        <f t="shared" si="2"/>
+      <c r="E143" t="str">
+        <f t="shared" si="4"/>
         <v>F1 =&gt; 29,</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F143" t="str">
+        <f t="shared" si="5"/>
+        <v>F1: 29,</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D144" s="5">
         <v>28</v>
       </c>
-      <c r="D144" t="str">
-        <f t="shared" si="2"/>
+      <c r="E144" t="str">
+        <f t="shared" si="4"/>
         <v>E1 =&gt; 28,</v>
       </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F144" t="str">
+        <f t="shared" si="5"/>
+        <v>E1: 28,</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D145" s="5">
         <v>27</v>
       </c>
-      <c r="D145" t="str">
-        <f t="shared" si="2"/>
+      <c r="E145" t="str">
+        <f t="shared" si="4"/>
         <v>Eb1 =&gt; 27,</v>
       </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F145" t="str">
+        <f t="shared" si="5"/>
+        <v>Eb1: 27,</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D146" s="5">
         <v>27</v>
       </c>
-      <c r="D146" t="str">
-        <f t="shared" si="2"/>
+      <c r="E146" t="str">
+        <f t="shared" si="4"/>
         <v>D#1 =&gt; 27,</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F146" t="str">
+        <f t="shared" si="5"/>
+        <v>Ds1: 27,</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D147" s="5">
         <v>26</v>
       </c>
-      <c r="D147" t="str">
-        <f t="shared" si="2"/>
+      <c r="E147" t="str">
+        <f t="shared" si="4"/>
         <v>D1 =&gt; 26,</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F147" t="str">
+        <f t="shared" si="5"/>
+        <v>D1: 26,</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D148" s="5">
         <v>25</v>
       </c>
-      <c r="D148" t="str">
-        <f t="shared" si="2"/>
+      <c r="E148" t="str">
+        <f t="shared" si="4"/>
         <v>Db1 =&gt; 25,</v>
       </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F148" t="str">
+        <f t="shared" si="5"/>
+        <v>Db1: 25,</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D149" s="5">
         <v>25</v>
       </c>
-      <c r="D149" t="str">
-        <f t="shared" si="2"/>
+      <c r="E149" t="str">
+        <f t="shared" si="4"/>
         <v>C#1 =&gt; 25,</v>
       </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F149" t="str">
+        <f t="shared" si="5"/>
+        <v>Cs1: 25,</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D150" s="5">
         <v>24</v>
       </c>
-      <c r="D150" t="str">
-        <f t="shared" si="2"/>
+      <c r="E150" t="str">
+        <f t="shared" si="4"/>
         <v>C1 =&gt; 24,</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F150" t="str">
+        <f t="shared" si="5"/>
+        <v>C1: 24,</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D151" s="5">
         <v>23</v>
       </c>
-      <c r="D151" t="str">
-        <f t="shared" si="2"/>
+      <c r="E151" t="str">
+        <f t="shared" si="4"/>
         <v>B0 =&gt; 23,</v>
       </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F151" t="str">
+        <f t="shared" si="5"/>
+        <v>B0: 23,</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D152" s="5">
         <v>22</v>
       </c>
-      <c r="D152" t="str">
-        <f t="shared" si="2"/>
+      <c r="E152" t="str">
+        <f t="shared" si="4"/>
         <v>Bb0 =&gt; 22,</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F152" t="str">
+        <f t="shared" si="5"/>
+        <v>Bb0: 22,</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D153" s="5">
         <v>22</v>
       </c>
-      <c r="D153" t="str">
-        <f t="shared" si="2"/>
+      <c r="E153" t="str">
+        <f t="shared" si="4"/>
         <v>A#0 =&gt; 22,</v>
       </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F153" t="str">
+        <f t="shared" si="5"/>
+        <v>As0: 22,</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D154" s="5">
         <v>21</v>
       </c>
-      <c r="D154" t="str">
-        <f t="shared" si="2"/>
+      <c r="E154" t="str">
+        <f t="shared" si="4"/>
         <v>A0 =&gt; 21,</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F154" t="str">
+        <f t="shared" si="5"/>
+        <v>A0: 21,</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
-      <c r="C155" s="5"/>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C155" s="1"/>
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
-      <c r="C156" s="5"/>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C156" s="1"/>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
-      <c r="C157" s="5"/>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C157" s="1"/>
+      <c r="D157" s="5"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
-      <c r="C158" s="5"/>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C158" s="1"/>
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
-      <c r="C159" s="5"/>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C159" s="1"/>
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1"/>
-      <c r="C160" s="5"/>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C160" s="1"/>
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
-      <c r="C161" s="5"/>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="1"/>
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
-      <c r="C162" s="5"/>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="1"/>
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
-      <c r="C163" s="5"/>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="1"/>
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
-      <c r="C164" s="5"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="1"/>
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="1"/>
-      <c r="C165" s="5"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="1"/>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="1"/>
-      <c r="C166" s="5"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="1"/>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
-      <c r="C167" s="5"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="1"/>
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B168" s="1"/>
-      <c r="C168" s="5"/>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C168" s="1"/>
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="1"/>
-      <c r="C169" s="5"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="1"/>
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="1"/>
-      <c r="C170" s="5"/>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="1"/>
+      <c r="D170" s="5"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="1"/>
-      <c r="C171" s="5"/>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C171" s="1"/>
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="1"/>
-      <c r="C172" s="5"/>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="1"/>
+      <c r="D172" s="5"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="1"/>
-      <c r="C173" s="5"/>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="1"/>
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="1"/>
-      <c r="C174" s="5"/>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="1"/>
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="1"/>
-      <c r="C175" s="5"/>
-    </row>
-    <row r="176" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="C176" s="6"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="D176" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
